--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.021120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.021120.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2495,12 +2495,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4059,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4729,12 +4729,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5357,12 +5357,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5907,12 +5907,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6745,12 +6745,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6829,12 +6829,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7375,12 +7375,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7883,12 +7883,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7967,12 +7967,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8307,12 +8307,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8349,12 +8349,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8983,12 +8983,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9235,12 +9235,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9537,12 +9537,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
